--- a/public/sample/product-batch-upload-sample.xlsx
+++ b/public/sample/product-batch-upload-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uark\Desktop\測試新品提報\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\uEC_Backend\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2134D8DA-18DA-4D3E-8A35-CAEFD4046876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B8062-6EEB-4647-800A-B5E08EB5ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{719F823C-63DA-4836-B005-31C262EFDE64}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{719F823C-63DA-4836-B005-31C262EFDE64}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="3" r:id="rId1"/>
@@ -335,25 +335,6 @@
         <charset val="136"/>
       </rPr>
       <t>---
-B：寄倉
-T：轉單</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">必填
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>---
 最多100個字</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -858,12 +839,54 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">必填
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>---
+B：寄倉
+T：轉單</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">A : 買斷 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -944,6 +967,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.14999847407452621"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1451,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD844A49-CB6F-4975-862A-7EDFC9FFF972}">
   <dimension ref="A1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.4"/>
@@ -1541,7 +1572,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>14</v>
@@ -1625,25 +1656,25 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AR1" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="AS1" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="24" customFormat="1" ht="91" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>41</v>
@@ -1652,29 +1683,29 @@
         <v>41</v>
       </c>
       <c r="G2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>41</v>
@@ -1684,7 +1715,7 @@
       </c>
       <c r="R2" s="22"/>
       <c r="S2" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="23" t="s">
@@ -1709,39 +1740,39 @@
         <v>41</v>
       </c>
       <c r="AB2" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC2" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD2" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE2" s="27"/>
       <c r="AF2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG2" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AH2" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="AH2" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="AI2" s="27"/>
       <c r="AJ2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AL2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AM2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AM2" s="28" t="s">
-        <v>88</v>
-      </c>
       <c r="AN2" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO2" s="16" t="s">
         <v>41</v>
@@ -1750,13 +1781,13 @@
         <v>41</v>
       </c>
       <c r="AQ2" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AR2" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS2" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:45" s="3" customFormat="1" ht="130" x14ac:dyDescent="0.4">
@@ -1764,16 +1795,16 @@
         <v>42</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>58</v>
@@ -1803,7 +1834,7 @@
         <v>61</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P3" s="6">
         <v>50</v>
@@ -1812,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>45</v>
@@ -1873,7 +1904,7 @@
         <v>365</v>
       </c>
       <c r="AO3" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP3" s="14" t="s">
         <v>69</v>
@@ -1882,10 +1913,10 @@
         <v>10201</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS3" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="39" x14ac:dyDescent="0.4">
@@ -1893,16 +1924,16 @@
         <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>59</v>
@@ -1923,7 +1954,7 @@
         <v>62</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P4" s="6">
         <v>30</v>
@@ -1932,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>63</v>
@@ -1968,7 +1999,7 @@
         <v>365</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP4" s="10" t="s">
         <v>64</v>
@@ -1977,10 +2008,10 @@
         <v>10201</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS4" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="39" x14ac:dyDescent="0.4">
@@ -1988,16 +2019,16 @@
         <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>59</v>
@@ -2018,7 +2049,7 @@
         <v>68</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P5" s="6">
         <v>30</v>
@@ -2027,7 +2058,7 @@
         <v>10</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>63</v>
@@ -2063,7 +2094,7 @@
         <v>365</v>
       </c>
       <c r="AO5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP5" s="10" t="s">
         <v>64</v>
@@ -2072,10 +2103,10 @@
         <v>10201</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS5" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="104" x14ac:dyDescent="0.4">
@@ -2083,25 +2114,25 @@
         <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>44</v>
@@ -2110,16 +2141,16 @@
         <v>56</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P6" s="6">
         <v>30</v>
@@ -2128,10 +2159,10 @@
         <v>10</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U6" s="6">
         <v>90</v>
@@ -2155,10 +2186,10 @@
         <v>900</v>
       </c>
       <c r="AB6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC6" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="AC6" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="AL6" s="10" t="s">
         <v>53</v>
@@ -2170,7 +2201,7 @@
         <v>365</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AP6" s="14" t="s">
         <v>69</v>
@@ -2179,10 +2210,10 @@
         <v>10201</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS6" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="104" x14ac:dyDescent="0.4">
@@ -2190,25 +2221,25 @@
         <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>44</v>
@@ -2217,16 +2248,16 @@
         <v>56</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P7" s="6">
         <v>30</v>
@@ -2235,10 +2266,10 @@
         <v>10</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U7" s="6">
         <v>90</v>
@@ -2262,10 +2293,10 @@
         <v>900</v>
       </c>
       <c r="AB7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC7" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="AC7" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="AL7" s="10" t="s">
         <v>53</v>
@@ -2277,7 +2308,7 @@
         <v>365</v>
       </c>
       <c r="AO7" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AP7" s="14" t="s">
         <v>69</v>
@@ -2286,10 +2317,10 @@
         <v>10201</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS7" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="104" x14ac:dyDescent="0.4">
@@ -2297,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>44</v>
@@ -2324,16 +2355,16 @@
         <v>56</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P8" s="6">
         <v>30</v>
@@ -2342,10 +2373,10 @@
         <v>10</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U8" s="6">
         <v>90</v>
@@ -2369,10 +2400,10 @@
         <v>900</v>
       </c>
       <c r="AB8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC8" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="AL8" s="10" t="s">
         <v>53</v>
@@ -2384,7 +2415,7 @@
         <v>365</v>
       </c>
       <c r="AO8" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AP8" s="14" t="s">
         <v>69</v>
@@ -2393,10 +2424,10 @@
         <v>10201</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS8" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="104" x14ac:dyDescent="0.4">
@@ -2404,25 +2435,25 @@
         <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>44</v>
@@ -2431,16 +2462,16 @@
         <v>56</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P9" s="6">
         <v>30</v>
@@ -2449,10 +2480,10 @@
         <v>10</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U9" s="6">
         <v>90</v>
@@ -2476,10 +2507,10 @@
         <v>900</v>
       </c>
       <c r="AB9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC9" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="AC9" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="AL9" s="10" t="s">
         <v>53</v>
@@ -2491,7 +2522,7 @@
         <v>365</v>
       </c>
       <c r="AO9" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AP9" s="14" t="s">
         <v>69</v>
@@ -2500,10 +2531,10 @@
         <v>10201</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS9" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -2553,52 +2584,52 @@
         <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -2629,22 +2660,22 @@
         <v>58</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>126</v>
-      </c>
       <c r="Q3" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -2652,27 +2683,27 @@
         <v>59</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample/product-batch-upload-sample.xlsx
+++ b/public/sample/product-batch-upload-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uark\Downloads\issue-pic-p2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\uEC_Backend\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D112B2F1-FE05-4E0F-8299-8B8846761B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3020558D-C0F3-4833-8C9B-5B1425B54D08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{719F823C-63DA-4836-B005-31C262EFDE64}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{719F823C-63DA-4836-B005-31C262EFDE64}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="3" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
   <si>
     <t>庫存類型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -677,6 +669,67 @@
       <t>---
 最多20個字
 二維多規格商品必填</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送溫層</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放溫層</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">必填
+-----
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>N:常溫</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+C:冷藏</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">依條件必填
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>---
+買斷：必填
+寄售：必填
+轉單：非必填
+N：常溫
+A：空調
+C：冷藏</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -685,7 +738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -773,6 +826,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1263,56 +1323,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD844A49-CB6F-4975-862A-7EDFC9FFF972}">
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="25.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" style="9" customWidth="1"/>
-    <col min="20" max="20" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="5" customWidth="1"/>
-    <col min="25" max="27" width="11.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.36328125" style="9" customWidth="1"/>
-    <col min="29" max="29" width="29.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="25.125" style="9" customWidth="1"/>
+    <col min="16" max="17" width="12.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="9" customWidth="1"/>
+    <col min="20" max="20" width="10.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="5" customWidth="1"/>
+    <col min="25" max="27" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.375" style="9" customWidth="1"/>
+    <col min="29" max="29" width="29.5" style="9" customWidth="1"/>
     <col min="30" max="30" width="26" style="9" customWidth="1"/>
-    <col min="31" max="31" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.125" style="5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.90625" style="9" customWidth="1"/>
-    <col min="36" max="37" width="26.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="19.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="58.08984375" style="9" customWidth="1"/>
-    <col min="42" max="42" width="46.81640625" style="9" customWidth="1"/>
-    <col min="43" max="43" width="26.90625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="33.6328125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="35.1796875" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="8.7265625" style="1"/>
+    <col min="35" max="35" width="16.875" style="9" customWidth="1"/>
+    <col min="36" max="37" width="26.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="58.125" style="9" customWidth="1"/>
+    <col min="42" max="42" width="46.875" style="9" customWidth="1"/>
+    <col min="43" max="43" width="26.875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="33.625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="21.375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="18" style="1" customWidth="1"/>
+    <col min="48" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:47" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1448,8 +1510,14 @@
       <c r="AS1" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="AT1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" s="20" customFormat="1" ht="91" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:47" s="20" customFormat="1" ht="108" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -1573,8 +1641,14 @@
       <c r="AS2" s="13" t="s">
         <v>92</v>
       </c>
+      <c r="AT2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU2" s="15" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
@@ -1607,16 +1681,16 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="15.6328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16" width="15.6328125" style="25" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" style="25" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="25"/>
+    <col min="1" max="1" width="10.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="15.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="15.625" style="25" customWidth="1"/>
+    <col min="17" max="17" width="18.25" style="25" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1743,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>41</v>
       </c>
@@ -1692,7 +1766,7 @@
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>42</v>
       </c>
@@ -1715,7 +1789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>43</v>
       </c>
@@ -1726,7 +1800,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>84</v>
       </c>

--- a/public/sample/product-batch-upload-sample.xlsx
+++ b/public/sample/product-batch-upload-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\uEC_Backend\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uark\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3020558D-C0F3-4833-8C9B-5B1425B54D08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EAC63B-6F6D-44A4-9712-E31F835BA905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{719F823C-63DA-4836-B005-31C262EFDE64}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{719F823C-63DA-4836-B005-31C262EFDE64}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
   <si>
     <t>庫存類型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -733,12 +733,25 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>必填
+---
+贈品 : 0
+一般品 : 1 ~ 999999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填
+---
+贈品/一般品 : 1 ~999999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1325,56 +1338,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD844A49-CB6F-4975-862A-7EDFC9FFF972}">
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="25.125" style="9" customWidth="1"/>
-    <col min="16" max="17" width="12.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="9" customWidth="1"/>
-    <col min="20" max="20" width="10.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="14.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="5" customWidth="1"/>
-    <col min="25" max="27" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.375" style="9" customWidth="1"/>
-    <col min="29" max="29" width="29.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="25.08984375" style="9" customWidth="1"/>
+    <col min="16" max="17" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" style="5" customWidth="1"/>
+    <col min="25" max="27" width="11.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.36328125" style="9" customWidth="1"/>
+    <col min="29" max="29" width="29.453125" style="9" customWidth="1"/>
     <col min="30" max="30" width="26" style="9" customWidth="1"/>
-    <col min="31" max="31" width="10.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.875" style="9" customWidth="1"/>
-    <col min="36" max="37" width="26.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="58.125" style="9" customWidth="1"/>
-    <col min="42" max="42" width="46.875" style="9" customWidth="1"/>
-    <col min="43" max="43" width="26.875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="33.625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="35.125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="21.375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="16.90625" style="9" customWidth="1"/>
+    <col min="36" max="37" width="26.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="19.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="58.08984375" style="9" customWidth="1"/>
+    <col min="42" max="42" width="46.90625" style="9" customWidth="1"/>
+    <col min="43" max="43" width="26.90625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="33.6328125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.08984375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="21.36328125" style="1" customWidth="1"/>
     <col min="47" max="47" width="18" style="1" customWidth="1"/>
-    <col min="48" max="16384" width="8.75" style="1"/>
+    <col min="48" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1530,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="20" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="20" customFormat="1" ht="104">
       <c r="A2" s="13" t="s">
         <v>95</v>
       </c>
@@ -1583,13 +1596,13 @@
         <v>93</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="Z2" s="19" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="22" t="s">
         <v>51</v>
@@ -1648,7 +1661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" s="9" customFormat="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
@@ -1681,16 +1694,16 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="15.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16" width="15.625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="18.25" style="25" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="25"/>
+    <col min="1" max="1" width="10.08984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="15.6328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="15.6328125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="25" customWidth="1"/>
+    <col min="18" max="16384" width="8.81640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="A2" s="28" t="s">
         <v>41</v>
       </c>
@@ -1766,7 +1779,7 @@
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="26" t="s">
         <v>42</v>
       </c>
@@ -1789,7 +1802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="26" t="s">
         <v>43</v>
       </c>
@@ -1800,7 +1813,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="26" t="s">
         <v>84</v>
       </c>
